--- a/medicine/Médecine vétérinaire/Bruno_Fiszon/Bruno_Fiszon.xlsx
+++ b/medicine/Médecine vétérinaire/Bruno_Fiszon/Bruno_Fiszon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bruno Fiszon, né le 20 juin 1962 à Metz[1] est vétérinaire et rabbin  français. Il est grand-rabbin de Metz et de la Moselle depuis 1997.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bruno Fiszon, né le 20 juin 1962 à Metz est vétérinaire et rabbin  français. Il est grand-rabbin de Metz et de la Moselle depuis 1997.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait ses études au lycée Fabert de Metz en Moselle[2].
-Il obtient un diplôme de docteur en médecine vétérinaire et d’université en microbiologie (1985). Spécialiste des virus chez les oiseaux[3], il est membre élu de l’Académie vétérinaire de France.
-Rabbin de Thionville de 1991 à 1997, il est nommé grand-rabbin de Metz et de la Moselle depuis 1997[4],[5].
-Bruno Fiszon a été conseiller auprès du grand-rabbin de France Gilles Bernheim et du président du Consistoire central Joël Mergui pour les problèmes de cacherout et de shehita[6]. À ce titre, il est la principale référence religieuse juive lors de la polémique de 2012 sur l'abattage rituel. Au niveau européen il a participé au projet DIALREL afin de défendre l’abattage rituel en Europe[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses études au lycée Fabert de Metz en Moselle.
+Il obtient un diplôme de docteur en médecine vétérinaire et d’université en microbiologie (1985). Spécialiste des virus chez les oiseaux, il est membre élu de l’Académie vétérinaire de France.
+Rabbin de Thionville de 1991 à 1997, il est nommé grand-rabbin de Metz et de la Moselle depuis 1997,.
+Bruno Fiszon a été conseiller auprès du grand-rabbin de France Gilles Bernheim et du président du Consistoire central Joël Mergui pour les problèmes de cacherout et de shehita. À ce titre, il est la principale référence religieuse juive lors de la polémique de 2012 sur l'abattage rituel. Au niveau européen il a participé au projet DIALREL afin de défendre l’abattage rituel en Europe.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Chevalier de l’ordre national du Mérite depuis juillet 2007[8],[9].
-Chevalier de la Légion d'honneur depuis juillet 2016[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chevalier de l’ordre national du Mérite depuis juillet 2007,.
+Chevalier de la Légion d'honneur depuis juillet 2016.</t>
         </is>
       </c>
     </row>
@@ -576,13 +592,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Thèse de doctorat sur l'étude comparative d'orthomyxovirus de mammifères et d'oiseaux, 1990[10]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Thèse de doctorat sur l'étude comparative d'orthomyxovirus de mammifères et d'oiseaux, 1990
 Congrès des communautés juives de France (1) Vie juive
 Manger cacher : privilège, droit ou devoir, D. Bloch, P-DG - B. Fiszon, grand-rabbin - A. Guigui, grand-rabbin - P. Moog, LICRA Neuilly - D. Revcolevschi, trésorier - A. Sebban, pdt consistoire, consistoire central, palais des congrès, Paris mars 2012
-Présentation des lois alimentaires juives devant l'Académie vétérinaire de France[11]
-Et Dieu créa l'animal. Livre sur l'animal dans le judaïsme. Éditions Transmettre, 2021[12]</t>
+Présentation des lois alimentaires juives devant l'Académie vétérinaire de France
+Et Dieu créa l'animal. Livre sur l'animal dans le judaïsme. Éditions Transmettre, 2021</t>
         </is>
       </c>
     </row>
